--- a/preproc/Train_FaceSwitch.xlsx
+++ b/preproc/Train_FaceSwitch.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engine_D2\EphysAnalysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\FaceSwitch\code\EphysAnalysis_FaceSwitch\preproc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5667FE0A-B66A-4A2C-A671-B00F659D4F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895873D6-E95F-455D-BC54-665D21674E3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6948" yWindow="1152" windowWidth="26196" windowHeight="14988" xr2:uid="{9E121B91-0AB2-4816-96BF-262F0B6EB626}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{9E121B91-0AB2-4816-96BF-262F0B6EB626}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="562">
   <si>
     <t>valid</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1869,6 +1872,10 @@
   </si>
   <si>
     <t>Nick20241016_01.mat</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2624,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A68E046B-ABF3-42AA-9D06-07A510DCAFC5}">
   <dimension ref="A1:L268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A170" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G174" sqref="G174"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H150" sqref="H150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -10518,7 +10525,7 @@
         <v>492</v>
       </c>
       <c r="H262" s="16" t="s">
-        <v>16</v>
+        <v>561</v>
       </c>
       <c r="I262" s="16"/>
       <c r="J262" s="16"/>
@@ -10550,7 +10557,7 @@
         <v>493</v>
       </c>
       <c r="H263" s="16" t="s">
-        <v>16</v>
+        <v>561</v>
       </c>
       <c r="I263" s="19"/>
       <c r="J263" s="19"/>
@@ -10582,7 +10589,7 @@
         <v>494</v>
       </c>
       <c r="H264" s="16" t="s">
-        <v>16</v>
+        <v>561</v>
       </c>
       <c r="I264" s="19"/>
       <c r="J264" s="19"/>
@@ -10614,7 +10621,7 @@
         <v>495</v>
       </c>
       <c r="H265" s="16" t="s">
-        <v>16</v>
+        <v>561</v>
       </c>
       <c r="I265" s="19"/>
       <c r="J265" s="19"/>
@@ -10646,7 +10653,7 @@
         <v>496</v>
       </c>
       <c r="H266" s="16" t="s">
-        <v>16</v>
+        <v>561</v>
       </c>
       <c r="I266" s="19"/>
       <c r="J266" s="19"/>
@@ -10678,7 +10685,7 @@
         <v>497</v>
       </c>
       <c r="H267" s="16" t="s">
-        <v>16</v>
+        <v>561</v>
       </c>
       <c r="I267" s="19"/>
       <c r="J267" s="19"/>
@@ -10710,7 +10717,7 @@
         <v>498</v>
       </c>
       <c r="H268" s="16" t="s">
-        <v>16</v>
+        <v>561</v>
       </c>
       <c r="I268" s="19"/>
       <c r="J268" s="19"/>
